--- a/Document/3_Report/Daily_October/ToanNM_Daily_report_-_October.xlsx
+++ b/Document/3_Report/Daily_October/ToanNM_Daily_report_-_October.xlsx
@@ -23,18 +23,21 @@
     <t>Kế hoạch</t>
   </si>
   <si>
-    <t>Làm nốt nhưng gì chưa làm được,nếu có thể.</t>
-  </si>
-  <si>
     <t>- Công việc 1:chưa có gì
 - Công việc 2:cũng chưa có gì</t>
   </si>
   <si>
+    <t xml:space="preserve">- Vấn đề 1: </t>
+  </si>
+  <si>
     <t>- Công việc 1: hoàn thành
 - Công việc 2:hoàn thành</t>
   </si>
   <si>
-    <t xml:space="preserve">10/12/2014 
+    <t>- Vấn đề 1:chưa có gì</t>
+  </si>
+  <si>
+    <t>10/12/2014
 Kế hoạch - Công việc 1:chưa có gì
 - Công việc 2:cũng chưa có gì
 Kết quả đạt được - Công việc 1: hoàn thành
@@ -44,10 +47,7 @@
 - Vấn đề 2:cũng chưa có gì
 Giải quyết vấn đề: - Vấn đề 1: chưa có gì để giải quyết
 - Vấn đề 2: cũng chưa có gì để giải quyết
-Kế hoạch ngày mai </t>
-  </si>
-  <si>
-    <t>- Vấn đề 1:chưa có gì</t>
+Kế hoạch ngày mai</t>
   </si>
   <si>
     <t>- Công việc 1:Add Noti vào NotificationScreen.
@@ -64,6 +64,12 @@
     <t>- Vấn đề 1: đôi khi Update được DB khi có Noti mới,đôi khi không.</t>
   </si>
   <si>
+    <t>- Vấn đề 1:chưa hiển thị được đầy đủ 3 Noti riêng biệt.</t>
+  </si>
+  <si>
+    <t>- Vấn đề 2: chưa giải quyết được</t>
+  </si>
+  <si>
     <t>- Vấn đề 1:chưa có gì
 - Vấn đề 2:cũng chưa có gì</t>
   </si>
@@ -71,6 +77,9 @@
     <t>- Vấn đề 1: chưa có gì để giải quyết</t>
   </si>
   <si>
+    <t>- Vấn đề 2:</t>
+  </si>
+  <si>
     <t>Kết quả đạt được</t>
   </si>
   <si>
@@ -78,7 +87,19 @@
 - Vấn đề 2:cũng chưa có gì để giải quyết</t>
   </si>
   <si>
-    <t>- Vấn đề 2: coming soon</t>
+    <t>- Vấn đề 1: chưa giải quyết được.</t>
+  </si>
+  <si>
+    <t>- Công việc 1:
+- Công việc 2:</t>
+  </si>
+  <si>
+    <t>- Công việc 1: hoàn thành 40%
+- Công việc 2: hoàn thành 90%</t>
+  </si>
+  <si>
+    <t>- Vấn đề 2:màn hình hiển thị toàn bộ Notification chưa hiển thị chính xác những Noti được đọc rồi(khi swipe 
+ListView lên xuống nhiều lần sẽ bị loạn màu).</t>
   </si>
   <si>
     <t>Đúng tiến độ/Chậm tiến độ</t>
@@ -87,22 +108,22 @@
     <t>- Vấn đề 2: giải quyết như sau....</t>
   </si>
   <si>
-    <t>- Vấn đề 2:coming soon</t>
-  </si>
-  <si>
     <t>- Vấn đề 2: cũng chưa có gì để giải quyết</t>
   </si>
   <si>
     <t>Trạng thái</t>
   </si>
   <si>
-    <t>- Vấn đề 1: coming soon</t>
+    <t>Hiển thị 3 Noti riêng biệt,update Noti Count cho Widget...</t>
   </si>
   <si>
     <t>- Vấn đề 1: chưa có gì để giải quyết
 - Vấn đề 2: cũng chưa có gì để giải quyết</t>
   </si>
   <si>
+    <t>- Vấn đề 1:.</t>
+  </si>
+  <si>
     <t>Giải quyết vấn đề:</t>
   </si>
   <si>
@@ -113,9 +134,6 @@
   </si>
   <si>
     <t>Chậm tiến độ</t>
-  </si>
-  <si>
-    <t>- Vấn đề 1:coming soon</t>
   </si>
   <si>
     <t>- Công việc 1:Noti trên statusBar
@@ -626,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C87"/>
+  <dimension ref="A2:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -634,14 +652,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.0" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.980469" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.972656" style="1" customWidth="1"/>
-    <col min="3" max="3" width="95.92969" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.9921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.992188" style="1" customWidth="1"/>
+    <col min="3" max="3" width="96.02734" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="31.5" customHeight="1">
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
@@ -655,12 +673,12 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>4</v>
@@ -668,43 +686,43 @@
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="B9" s="5"/>
       <c r="C9" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7"/>
     </row>
@@ -720,12 +738,12 @@
         <v>1</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="B15" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>8</v>
@@ -733,43 +751,43 @@
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="B16" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="B17" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="B19" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="B21" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7"/>
     </row>
@@ -785,12 +803,12 @@
         <v>1</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="30" customHeight="1">
       <c r="B24" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>8</v>
@@ -798,43 +816,43 @@
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="B28" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="B30" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C30" s="7"/>
     </row>
@@ -849,12 +867,12 @@
         <v>1</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1">
       <c r="B33" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>8</v>
@@ -862,43 +880,43 @@
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="B34" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="B35" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="B36" s="5"/>
       <c r="C36" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="B37" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="B38" s="5"/>
       <c r="C38" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="B39" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C39" s="7"/>
     </row>
@@ -913,12 +931,12 @@
         <v>1</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="B42" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>8</v>
@@ -926,18 +944,18 @@
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="B44" s="10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1">
@@ -946,15 +964,15 @@
     </row>
     <row r="46" ht="15" customHeight="1">
       <c r="B46" s="10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1">
@@ -968,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1">
@@ -977,7 +995,7 @@
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>8</v>
@@ -988,18 +1006,18 @@
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="B53" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="B54" s="10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1">
@@ -1007,10 +1025,10 @@
     </row>
     <row r="56" ht="15" customHeight="1">
       <c r="B56" s="10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1">
@@ -1018,7 +1036,7 @@
     </row>
     <row r="58" ht="15" customHeight="1">
       <c r="B58" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1">
@@ -1032,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1">
@@ -1041,7 +1059,7 @@
     </row>
     <row r="62" ht="15" customHeight="1">
       <c r="B62" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>8</v>
@@ -1052,18 +1070,18 @@
     </row>
     <row r="64" ht="15" customHeight="1">
       <c r="B64" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1">
       <c r="B65" s="10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1">
@@ -1071,10 +1089,10 @@
     </row>
     <row r="67" ht="15" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1">
@@ -1082,14 +1100,14 @@
     </row>
     <row r="69" ht="15" customHeight="1">
       <c r="B69" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1">
-      <c r="B70" s="14" t="n">
+      <c r="B70" s="3" t="n">
         <v>41928.0</v>
       </c>
       <c r="C70" s="4"/>
@@ -1104,7 +1122,7 @@
     </row>
     <row r="72" ht="15" customHeight="1">
       <c r="B72" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>8</v>
@@ -1112,15 +1130,15 @@
     </row>
     <row r="73" ht="15" customHeight="1">
       <c r="B73" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1">
       <c r="B74" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>9</v>
@@ -1129,12 +1147,12 @@
     <row r="75" ht="15" customHeight="1">
       <c r="B75" s="5"/>
       <c r="C75" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1">
       <c r="B76" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>10</v>
@@ -1143,19 +1161,19 @@
     <row r="77" ht="15" customHeight="1">
       <c r="B77" s="5"/>
       <c r="C77" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
       <c r="B78" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
-      <c r="B79" s="14" t="n">
+      <c r="B79" s="3" t="n">
         <v>41929.0</v>
       </c>
       <c r="C79" s="4"/>
@@ -1165,63 +1183,127 @@
         <v>1</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
       <c r="B81" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
       <c r="B82" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="B83" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="B84" s="5"/>
-      <c r="C84" s="7" t="s">
-        <v>18</v>
+      <c r="C84" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
       <c r="B85" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
       <c r="B86" s="5"/>
       <c r="C86" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="B87" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" ht="15" customHeight="1">
+      <c r="B88" s="14" t="n">
+        <v>41930.0</v>
+      </c>
+      <c r="C88" s="4"/>
+    </row>
+    <row r="89" ht="15" customHeight="1">
+      <c r="B89" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" ht="15" customHeight="1">
+      <c r="B90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" ht="15" customHeight="1">
+      <c r="B91" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" ht="15" customHeight="1">
+      <c r="B92" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" ht="15" customHeight="1">
+      <c r="B93" s="5"/>
+      <c r="C93" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" ht="15" customHeight="1">
+      <c r="B94" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" ht="15" customHeight="1">
+      <c r="B95" s="5"/>
+      <c r="C95" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" ht="15" customHeight="1">
+      <c r="B96" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C96" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B17:B18"/>
@@ -1235,6 +1317,8 @@
     <mergeCell ref="B76:B77"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
   </mergeCells>
   <printOptions/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/Document/3_Report/Daily_October/ToanNM_Daily_report_-_October.xlsx
+++ b/Document/3_Report/Daily_October/ToanNM_Daily_report_-_October.xlsx
@@ -17,6 +17,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
+    <t xml:space="preserve">
+- Công việc 2: hoàn thành 90%</t>
+  </si>
+  <si>
     <t>Chuyển sang làm phần Noti trên statusBar,và hoàn thiện nốt phần NotiScreen.</t>
   </si>
   <si>
@@ -27,11 +31,15 @@
 - Công việc 2:cũng chưa có gì</t>
   </si>
   <si>
-    <t xml:space="preserve">- Vấn đề 1: </t>
+    <t>- Công việc 1: Lấy ra số lượng Notification.</t>
   </si>
   <si>
     <t>- Công việc 1: hoàn thành
 - Công việc 2:hoàn thành</t>
+  </si>
+  <si>
+    <t>- Vấn đề 2: Giải quyết được vấn đề không mở màn hình cảnh báo khi số lượng Noti &gt; 2 nhưng lại không hiển
+thị được &gt; 2 cảnh báo.Ví dụ khi có N cảnh báo(N &gt;2).</t>
   </si>
   <si>
     <t>- Vấn đề 1:chưa có gì</t>
@@ -67,6 +75,9 @@
     <t>- Vấn đề 1:chưa hiển thị được đầy đủ 3 Noti riêng biệt.</t>
   </si>
   <si>
+    <t>- Công việc 2: Lấy ra số lượng Notification.</t>
+  </si>
+  <si>
     <t>- Vấn đề 2: chưa giải quyết được</t>
   </si>
   <si>
@@ -77,10 +88,13 @@
     <t>- Vấn đề 1: chưa có gì để giải quyết</t>
   </si>
   <si>
-    <t>- Vấn đề 2:</t>
+    <t>- Công việc 1: hoàn thành.</t>
   </si>
   <si>
     <t>Kết quả đạt được</t>
+  </si>
+  <si>
+    <t>thêm 1  số Condition để kiểm tra,cố gắng giải quyết 2 vấn đề trên.</t>
   </si>
   <si>
     <t>- Vấn đề 1: chưa có gì để giải quyết
@@ -90,19 +104,17 @@
     <t>- Vấn đề 1: chưa giải quyết được.</t>
   </si>
   <si>
-    <t>- Công việc 1:
-- Công việc 2:</t>
-  </si>
-  <si>
-    <t>- Công việc 1: hoàn thành 40%
-- Công việc 2: hoàn thành 90%</t>
-  </si>
-  <si>
-    <t>- Vấn đề 2:màn hình hiển thị toàn bộ Notification chưa hiển thị chính xác những Noti được đọc rồi(khi swipe 
+    <t>Đúng tiến độ/Chậm tiến độ</t>
+  </si>
+  <si>
+    <t>- Vấn đề 2:màn hình hiển thị toàn bộ Notification chưa hiển thị chính xác những Noti được đọc rồi(khi swipe
 ListView lên xuống nhiều lần sẽ bị loạn màu).</t>
   </si>
   <si>
-    <t>Đúng tiến độ/Chậm tiến độ</t>
+    <t>- Công việc 2: chưa hoàn thành.</t>
+  </si>
+  <si>
+    <t>- Công việc 1:Noti trên statusBar</t>
   </si>
   <si>
     <t>- Vấn đề 2: giải quyết như sau....</t>
@@ -114,16 +126,23 @@
     <t>Trạng thái</t>
   </si>
   <si>
+    <t>- Công việc 1: Hiển thị được 3 Notification.</t>
+  </si>
+  <si>
     <t>Hiển thị 3 Noti riêng biệt,update Noti Count cho Widget...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Công việc 2:choàn thiện nốt phần NotiScreen</t>
+  </si>
+  <si>
+    <t>- Công việc 1: chưa hoàn thành.</t>
   </si>
   <si>
     <t>- Vấn đề 1: chưa có gì để giải quyết
 - Vấn đề 2: cũng chưa có gì để giải quyết</t>
   </si>
   <si>
-    <t>- Vấn đề 1:.</t>
-  </si>
-  <si>
     <t>Giải quyết vấn đề:</t>
   </si>
   <si>
@@ -136,11 +155,23 @@
     <t>Chậm tiến độ</t>
   </si>
   <si>
-    <t>- Công việc 1:Noti trên statusBar
-- Công việc 2:choàn thiện nốt phần NotiScreen</t>
+    <t>- Vấn đề 1: Hiển  thị được số lượng Notification trên thanh StatusBar,nhưng chưa lấy ra được số lượng Noti 
+phục vụ cho Widget và các mục đích khác.</t>
+  </si>
+  <si>
+    <t>- Vấn đề 2: Nếu số lượng Noti &gt; 2 =&gt;&gt; tự mở màn hình cảnh báo.</t>
+  </si>
+  <si>
+    <t>- Công việc 1: hoàn thành 40%</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: Chỉ lấy ra được số lượng Noti lần 1 khi chạy Service =&gt;&gt; service chạy lần 2 số lượng Noti sẽ = 0.</t>
   </si>
   <si>
     <t>- Vấn đề 2:cũng chưa có gì</t>
+  </si>
+  <si>
+    <t>- Công việc 2: Giải quyết vấn đề tự mở màn hình cảnh báo khi số lượng Noti &gt; 2.</t>
   </si>
   <si>
     <t>- Vấn đề 2: chưa giải quyết được.</t>
@@ -256,7 +287,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -279,6 +310,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -644,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C96"/>
+  <dimension ref="A2:C116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -652,14 +686,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.0" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.9921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.992188" style="1" customWidth="1"/>
-    <col min="3" max="3" width="96.02734" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.0" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.007812" style="1" customWidth="1"/>
+    <col min="3" max="3" width="96.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="31.5" customHeight="1">
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
@@ -670,59 +704,59 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="B9" s="5"/>
       <c r="C9" s="7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C12" s="7"/>
     </row>
@@ -735,59 +769,59 @@
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="B14" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="B21" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C21" s="7"/>
     </row>
@@ -800,59 +834,59 @@
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="B23" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="30" customHeight="1">
       <c r="B24" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="B25" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="B28" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="B30" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="7"/>
     </row>
@@ -864,59 +898,59 @@
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="B32" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1">
       <c r="B33" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="B34" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="B35" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="B36" s="5"/>
       <c r="C36" s="7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="B37" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="B38" s="5"/>
       <c r="C38" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="B39" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C39" s="7"/>
     </row>
@@ -928,34 +962,34 @@
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="B41" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="B42" s="10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="B44" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1">
@@ -964,15 +998,15 @@
     </row>
     <row r="46" ht="15" customHeight="1">
       <c r="B46" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1">
@@ -983,10 +1017,10 @@
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="B49" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1">
@@ -995,10 +1029,10 @@
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="B51" s="10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1">
@@ -1006,18 +1040,18 @@
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="B53" s="10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="B54" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1">
@@ -1025,10 +1059,10 @@
     </row>
     <row r="56" ht="15" customHeight="1">
       <c r="B56" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1">
@@ -1036,7 +1070,7 @@
     </row>
     <row r="58" ht="15" customHeight="1">
       <c r="B58" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1">
@@ -1047,10 +1081,10 @@
     </row>
     <row r="60" ht="15" customHeight="1">
       <c r="B60" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1">
@@ -1059,10 +1093,10 @@
     </row>
     <row r="62" ht="15" customHeight="1">
       <c r="B62" s="10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1">
@@ -1070,18 +1104,18 @@
     </row>
     <row r="64" ht="15" customHeight="1">
       <c r="B64" s="10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1">
       <c r="B65" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1">
@@ -1089,10 +1123,10 @@
     </row>
     <row r="67" ht="15" customHeight="1">
       <c r="B67" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1">
@@ -1100,10 +1134,10 @@
     </row>
     <row r="69" ht="15" customHeight="1">
       <c r="B69" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1">
@@ -1114,62 +1148,62 @@
     </row>
     <row r="71" ht="15" customHeight="1">
       <c r="B71" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1">
       <c r="B72" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1">
       <c r="B73" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1">
       <c r="B74" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1">
       <c r="B75" s="5"/>
       <c r="C75" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1">
       <c r="B76" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="B77" s="5"/>
       <c r="C77" s="8" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
       <c r="B78" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -1180,130 +1214,254 @@
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="B80" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
-      <c r="B81" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="B81" s="5"/>
       <c r="C81" s="6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
       <c r="B82" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
-      <c r="B83" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>11</v>
+      <c r="B83" s="5"/>
+      <c r="C83" s="6" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
-      <c r="B84" s="5"/>
-      <c r="C84" s="6" t="s">
-        <v>21</v>
+      <c r="B84" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
       <c r="B85" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
       <c r="B86" s="5"/>
-      <c r="C86" s="8" t="s">
-        <v>12</v>
+      <c r="C86" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
-      <c r="B87" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
     </row>
     <row r="88" ht="15" customHeight="1">
-      <c r="B88" s="14" t="n">
-        <v>41930.0</v>
-      </c>
-      <c r="C88" s="4"/>
+      <c r="B88" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="89" ht="15" customHeight="1">
-      <c r="B89" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>19</v>
+      <c r="B89" s="5"/>
+      <c r="C89" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="B90" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>8</v>
+        <v>46</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
-      <c r="B91" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="B91" s="3" t="n">
+        <v>41930.0</v>
+      </c>
+      <c r="C91" s="4"/>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="B92" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="B93" s="5"/>
-      <c r="C93" s="7" t="s">
-        <v>15</v>
+      <c r="C93" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="B94" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="B95" s="5"/>
-      <c r="C95" s="8" t="s">
-        <v>15</v>
+      <c r="C95" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="B96" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" ht="15" customHeight="1">
+      <c r="B97" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C96" s="7"/>
+      <c r="C97" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" ht="15" customHeight="1">
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+    </row>
+    <row r="99" ht="15" customHeight="1">
+      <c r="B99" s="5"/>
+      <c r="C99" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" ht="15" customHeight="1">
+      <c r="B100" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" ht="15" customHeight="1">
+      <c r="B101" s="5"/>
+      <c r="C101" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" ht="15" customHeight="1">
+      <c r="B102" s="5"/>
+      <c r="C102" s="14"/>
+    </row>
+    <row r="103" ht="15" customHeight="1">
+      <c r="B103" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" ht="15" customHeight="1">
+      <c r="B104" s="15" t="n">
+        <v>41931.0</v>
+      </c>
+      <c r="C104" s="4"/>
+    </row>
+    <row r="105" ht="15" customHeight="1">
+      <c r="B105" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" ht="15" customHeight="1">
+      <c r="B106" s="5"/>
+      <c r="C106" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" ht="15" customHeight="1">
+      <c r="B107" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" ht="15" customHeight="1">
+      <c r="B108" s="5"/>
+      <c r="C108" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" ht="15" customHeight="1">
+      <c r="B109" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" ht="15" customHeight="1">
+      <c r="B110" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" ht="15" customHeight="1">
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+    </row>
+    <row r="112" ht="15" customHeight="1">
+      <c r="B112" s="5"/>
+      <c r="C112" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" ht="15" customHeight="1">
+      <c r="B113" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="114" ht="15" customHeight="1">
+      <c r="B114" s="5"/>
+      <c r="C114" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" ht="15" customHeight="1">
+      <c r="B115" s="5"/>
+      <c r="C115" s="14"/>
+    </row>
+    <row r="116" ht="15" customHeight="1">
+      <c r="B116" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="28">
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B17:B18"/>
@@ -1315,10 +1473,23 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="B88:B89"/>
     <mergeCell ref="B92:B93"/>
     <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C114:C115"/>
   </mergeCells>
   <printOptions/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/Document/3_Report/Daily_October/ToanNM_Daily_report_-_October.xlsx
+++ b/Document/3_Report/Daily_October/ToanNM_Daily_report_-_October.xlsx
@@ -194,7 +194,7 @@
     <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="M/D/YYYY"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -235,8 +235,14 @@
       <family val="2"/>
       <color rgb="FF000000"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +259,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFC00000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -287,7 +311,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -312,7 +336,15 @@
     <xf numFmtId="2" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" applyFont="1" fillId="6" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="6" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -344,7 +376,7 @@
       <rgbColor rgb="00FFFF00"/>
       <rgbColor rgb="00FF00FF"/>
       <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00C00000"/>
       <rgbColor rgb="00008000"/>
       <rgbColor rgb="00000080"/>
       <rgbColor rgb="00808000"/>
@@ -378,7 +410,7 @@
       <rgbColor rgb="00FFCC99"/>
       <rgbColor rgb="003366FF"/>
       <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="0092D050"/>
       <rgbColor rgb="00FFC000"/>
       <rgbColor rgb="00FF9900"/>
       <rgbColor rgb="00FF6600"/>
@@ -678,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C116"/>
+  <dimension ref="A2:C118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -695,6 +727,7 @@
       <c r="B2" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="B4" s="3" t="n">
@@ -1028,7 +1061,7 @@
       <c r="C50" s="13"/>
     </row>
     <row r="51" ht="15" customHeight="1">
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="12" t="s">
@@ -1036,7 +1069,8 @@
       </c>
     </row>
     <row r="52" ht="15" customHeight="1">
-      <c r="B52" s="10"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="12"/>
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="B53" s="10" t="s">
@@ -1047,7 +1081,7 @@
       </c>
     </row>
     <row r="54" ht="15" customHeight="1">
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="12" t="s">
@@ -1055,10 +1089,11 @@
       </c>
     </row>
     <row r="55" ht="15" customHeight="1">
-      <c r="B55" s="10"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="12"/>
     </row>
     <row r="56" ht="15" customHeight="1">
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C56" s="12" t="s">
@@ -1066,7 +1101,8 @@
       </c>
     </row>
     <row r="57" ht="15" customHeight="1">
-      <c r="B57" s="10"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="12"/>
     </row>
     <row r="58" ht="15" customHeight="1">
       <c r="B58" s="10" t="s">
@@ -1080,7 +1116,7 @@
       <c r="C59" s="4"/>
     </row>
     <row r="60" ht="15" customHeight="1">
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C60" s="13" t="s">
@@ -1088,11 +1124,11 @@
       </c>
     </row>
     <row r="61" ht="15" customHeight="1">
-      <c r="B61" s="10"/>
+      <c r="B61" s="14"/>
       <c r="C61" s="13"/>
     </row>
     <row r="62" ht="15" customHeight="1">
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C62" s="12" t="s">
@@ -1100,7 +1136,8 @@
       </c>
     </row>
     <row r="63" ht="15" customHeight="1">
-      <c r="B63" s="10"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="12"/>
     </row>
     <row r="64" ht="15" customHeight="1">
       <c r="B64" s="10" t="s">
@@ -1111,7 +1148,7 @@
       </c>
     </row>
     <row r="65" ht="15" customHeight="1">
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C65" s="12" t="s">
@@ -1119,10 +1156,11 @@
       </c>
     </row>
     <row r="66" ht="15" customHeight="1">
-      <c r="B66" s="10"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="12"/>
     </row>
     <row r="67" ht="15" customHeight="1">
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C67" s="12" t="s">
@@ -1130,7 +1168,8 @@
       </c>
     </row>
     <row r="68" ht="15" customHeight="1">
-      <c r="B68" s="10"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="12"/>
     </row>
     <row r="69" ht="15" customHeight="1">
       <c r="B69" s="10" t="s">
@@ -1155,313 +1194,322 @@
       </c>
     </row>
     <row r="72" ht="15" customHeight="1">
-      <c r="B72" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
     </row>
     <row r="73" ht="15" customHeight="1">
       <c r="B73" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" ht="15" customHeight="1">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+    </row>
+    <row r="75" ht="15" customHeight="1">
+      <c r="B75" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="74" ht="15" customHeight="1">
-      <c r="B74" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" ht="15" customHeight="1">
-      <c r="B75" s="5"/>
-      <c r="C75" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1">
       <c r="B76" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="B77" s="5"/>
-      <c r="C77" s="8" t="s">
-        <v>45</v>
+      <c r="C77" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
       <c r="B78" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
-      <c r="B79" s="3" t="n">
-        <v>41929.0</v>
-      </c>
-      <c r="C79" s="4"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="B80" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>26</v>
+        <v>46</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
-      <c r="B81" s="5"/>
-      <c r="C81" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="B81" s="3" t="n">
+        <v>41929.0</v>
+      </c>
+      <c r="C81" s="4"/>
     </row>
     <row r="82" ht="15" customHeight="1">
       <c r="B82" s="5" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="B83" s="5"/>
       <c r="C83" s="6" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="B84" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" ht="15" customHeight="1">
+      <c r="B85" s="5"/>
+      <c r="C85" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" ht="15" customHeight="1">
+      <c r="B86" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C86" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="85" ht="15" customHeight="1">
-      <c r="B85" s="5" t="s">
+    <row r="87" ht="15" customHeight="1">
+      <c r="B87" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C87" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="86" ht="15" customHeight="1">
-      <c r="B86" s="5"/>
-      <c r="C86" s="6" t="s">
+    <row r="88" ht="15" customHeight="1">
+      <c r="B88" s="5"/>
+      <c r="C88" s="6" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="87" ht="15" customHeight="1">
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-    </row>
-    <row r="88" ht="15" customHeight="1">
-      <c r="B88" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
       <c r="B89" s="5"/>
-      <c r="C89" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="C89" s="5"/>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="B90" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
-      <c r="B91" s="3" t="n">
-        <v>41930.0</v>
-      </c>
-      <c r="C91" s="4"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="B92" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
-      <c r="B93" s="5"/>
-      <c r="C93" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B93" s="3" t="n">
+        <v>41930.0</v>
+      </c>
+      <c r="C93" s="4"/>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="B94" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="B95" s="5"/>
-      <c r="C95" s="6" t="s">
-        <v>25</v>
+      <c r="C95" s="15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="B96" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" ht="15" customHeight="1">
+      <c r="B97" s="5"/>
+      <c r="C97" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" ht="15" customHeight="1">
+      <c r="B98" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C98" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="97" ht="15" customHeight="1">
-      <c r="B97" s="5" t="s">
+    <row r="99" ht="15" customHeight="1">
+      <c r="B99" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C99" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="98" ht="15" customHeight="1">
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-    </row>
-    <row r="99" ht="15" customHeight="1">
-      <c r="B99" s="5"/>
-      <c r="C99" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="100" ht="15" customHeight="1">
-      <c r="B100" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="B101" s="5"/>
-      <c r="C101" s="14" t="s">
+      <c r="C101" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" ht="15" customHeight="1">
+      <c r="B102" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" ht="15" customHeight="1">
+      <c r="B103" s="5"/>
+      <c r="C103" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="102" ht="15" customHeight="1">
-      <c r="B102" s="5"/>
-      <c r="C102" s="14"/>
-    </row>
-    <row r="103" ht="15" customHeight="1">
-      <c r="B103" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="104" ht="15" customHeight="1">
-      <c r="B104" s="15" t="n">
-        <v>41931.0</v>
-      </c>
-      <c r="C104" s="4"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="18"/>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="B105" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
-      <c r="B106" s="5"/>
-      <c r="C106" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="B106" s="19" t="n">
+        <v>41931.0</v>
+      </c>
+      <c r="C106" s="4"/>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="B107" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="B108" s="5"/>
-      <c r="C108" s="6" t="s">
-        <v>25</v>
+      <c r="C108" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="B109" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" ht="15" customHeight="1">
+      <c r="B110" s="5"/>
+      <c r="C110" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" ht="15" customHeight="1">
+      <c r="B111" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C111" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="110" ht="15" customHeight="1">
-      <c r="B110" s="5" t="s">
+    <row r="112" ht="15" customHeight="1">
+      <c r="B112" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C112" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="111" ht="15" customHeight="1">
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-    </row>
-    <row r="112" ht="15" customHeight="1">
-      <c r="B112" s="5"/>
-      <c r="C112" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="113" ht="15" customHeight="1">
-      <c r="B113" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="B114" s="5"/>
-      <c r="C114" s="14" t="s">
+      <c r="C114" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" ht="15" customHeight="1">
+      <c r="B115" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" ht="15" customHeight="1">
+      <c r="B116" s="5"/>
+      <c r="C116" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="115" ht="15" customHeight="1">
-      <c r="B115" s="5"/>
-      <c r="C115" s="14"/>
-    </row>
-    <row r="116" ht="15" customHeight="1">
-      <c r="B116" s="5" t="s">
+    <row r="117" ht="15" customHeight="1">
+      <c r="B117" s="5"/>
+      <c r="C117" s="18"/>
+    </row>
+    <row r="118" ht="15" customHeight="1">
+      <c r="B118" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C118" s="7" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="47">
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B17:B18"/>
@@ -1471,25 +1519,43 @@
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
     <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B78:B79"/>
     <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="B90:B91"/>
     <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="C103:C104"/>
     <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="C116:C117"/>
   </mergeCells>
   <printOptions/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/Document/3_Report/Daily_October/ToanNM_Daily_report_-_October.xlsx
+++ b/Document/3_Report/Daily_October/ToanNM_Daily_report_-_October.xlsx
@@ -17,14 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t xml:space="preserve">
-- Công việc 2: hoàn thành 90%</t>
-  </si>
-  <si>
-    <t>Chuyển sang làm phần Noti trên statusBar,và hoàn thiện nốt phần NotiScreen.</t>
-  </si>
-  <si>
-    <t>Kế hoạch</t>
+    <t>- Công việc 2: Lấy ra số lượng Noti cho mỗi phần congvan/congviec/lichbieu.</t>
   </si>
   <si>
     <t>- Công việc 1:chưa có gì
@@ -34,6 +27,9 @@
     <t>- Công việc 1: Lấy ra số lượng Notification.</t>
   </si>
   <si>
+    <t>- Công việc 2: hoàn thành.</t>
+  </si>
+  <si>
     <t>- Công việc 1: hoàn thành
 - Công việc 2:hoàn thành</t>
   </si>
@@ -42,7 +38,124 @@
 thị được &gt; 2 cảnh báo.Ví dụ khi có N cảnh báo(N &gt;2).</t>
   </si>
   <si>
+    <t>- Công việc 1:Add Noti vào NotificationScreen.
+- Công việc 2:cũng chưa có gì</t>
+  </si>
+  <si>
+    <t>- Công việc 1: chưa có gì.</t>
+  </si>
+  <si>
+    <t>- Google Image search Notification.
+- Tìm hiểu kĩ hơn về Notification.</t>
+  </si>
+  <si>
+    <t>- Công việc 2: hoàn thành 90%</t>
+  </si>
+  <si>
+    <t>- Công việc 1:chưa làm được gì</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1:chưa hiển thị được đầy đủ 3 Noti riêng biệt.</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1:chưa có gì
+- Vấn đề 2:cũng chưa có gì</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: chưa có gì để giải quyết</t>
+  </si>
+  <si>
+    <t>- Công việc 1: hoàn thành.</t>
+  </si>
+  <si>
+    <t>- Công việc 2:choàn thiện nốt phần NotiScreen</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: chưa nhận định được việc phải làm.</t>
+  </si>
+  <si>
+    <t>- Công việc 2: như trên,vẫn chưa có gì.</t>
+  </si>
+  <si>
+    <t>Chưa có gì</t>
+  </si>
+  <si>
+    <t>Đúng tiến độ/Chậm tiến độ</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: nghịch linh tinh.</t>
+  </si>
+  <si>
+    <t>- Vấn đề 2: giải quyết như sau....</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: Sẽ Update sau.</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Hiển thị 3 Noti riêng biệt,update Noti Count cho Widget...</t>
+  </si>
+  <si>
+    <t>- Vấn đề 2: lạc đường.</t>
+  </si>
+  <si>
+    <t>- Vấn đề 2: đọc,xem...linh tinh.</t>
+  </si>
+  <si>
+    <t>- Công việc 1: chưa hoàn thành.</t>
+  </si>
+  <si>
+    <t>Chậm tiến độ</t>
+  </si>
+  <si>
+    <t>- Vấn đề 2: Nếu số lượng Noti &gt; 2 =&gt;&gt; tự mở màn hình cảnh báo.</t>
+  </si>
+  <si>
+    <t>- Công việc 2: cũng vậy,chưa có gì.</t>
+  </si>
+  <si>
+    <t>thêm 1 số Condition để kiểm tra,cố gắng giải quyết 2 vấn đề trên.</t>
+  </si>
+  <si>
+    <t>- Vấn đề 2:cũng chưa có gì</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: Chỉ lấy ra được số lượng Noti lần 1 khi chạy Service =&gt;&gt; service chạy lần 2 số lượng Noti sẽ = 0.</t>
+  </si>
+  <si>
+    <t>- Công việc 2: Giải quyết vấn đề tự mở màn hình cảnh báo khi số lượng Noti &gt; 2.</t>
+  </si>
+  <si>
+    <t>Kế hoạch ngày mai</t>
+  </si>
+  <si>
+    <t>Báo cáo công việc hàng ngày - tháng 10/2014</t>
+  </si>
+  <si>
+    <t>Chuyển sang làm phần Noti trên statusBar,và hoàn thiện nốt phần NotiScreen.</t>
+  </si>
+  <si>
+    <t>- Vấn đề 2: Clone Code.</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1:ngồi nghịch linh tinh</t>
+  </si>
+  <si>
+    <t>Kế hoạch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Vấn đề 1: </t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: chưa biết làm gì</t>
+  </si>
+  <si>
     <t>- Vấn đề 1:chưa có gì</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: làm linh tinh,chưa đúng với những việc cần làm</t>
   </si>
   <si>
     <t>10/12/2014
@@ -58,43 +171,48 @@
 Kế hoạch ngày mai</t>
   </si>
   <si>
-    <t>- Công việc 1:Add Noti vào NotificationScreen.
-- Công việc 2:cũng chưa có gì</t>
+    <t>- Vấn đề 1:chưa Update được DataBase realtime.</t>
   </si>
   <si>
     <t>- Công việc 1: hoàn thành
 - Công việc 2: hoàn thành</t>
   </si>
   <si>
-    <t>- Vấn đề 1:chưa Update được DataBase realtime.</t>
-  </si>
-  <si>
     <t>- Vấn đề 1: đôi khi Update được DB khi có Noti mới,đôi khi không.</t>
   </si>
   <si>
-    <t>- Vấn đề 1:chưa hiển thị được đầy đủ 3 Noti riêng biệt.</t>
+    <t>Chưa có gì.</t>
   </si>
   <si>
     <t>- Công việc 2: Lấy ra số lượng Notification.</t>
   </si>
   <si>
+    <t>- Vấn đề 2: tìm hiểu thêm về pending Intent.</t>
+  </si>
+  <si>
     <t>- Vấn đề 2: chưa giải quyết được</t>
   </si>
   <si>
-    <t>- Vấn đề 1:chưa có gì
-- Vấn đề 2:cũng chưa có gì</t>
-  </si>
-  <si>
-    <t>- Vấn đề 1: chưa có gì để giải quyết</t>
-  </si>
-  <si>
-    <t>- Công việc 1: hoàn thành.</t>
+    <t>- Công việc 2: Cố gắng để hiển thị đầy đủ nội dung,tên của 1 Notification trên NotificationBar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Vấn đề 2: </t>
+  </si>
+  <si>
+    <t>- Công việc 1: Hiển thị Notification trên NotificationBar theo đúng Requirements</t>
+  </si>
+  <si>
+    <t>- Vấn đề 2: tương tự vấn đề 1.</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: Hiển thị được số lượng Notification trên thanh StatusBar,nhưng chưa lấy ra được số lượng Noti
+phục vụ cho Widget và các mục đích khác.</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1: Code chưa gọn gàng.</t>
   </si>
   <si>
     <t>Kết quả đạt được</t>
-  </si>
-  <si>
-    <t>thêm 1  số Condition để kiểm tra,cố gắng giải quyết 2 vấn đề trên.</t>
   </si>
   <si>
     <t>- Vấn đề 1: chưa có gì để giải quyết
@@ -104,39 +222,33 @@
     <t>- Vấn đề 1: chưa giải quyết được.</t>
   </si>
   <si>
-    <t>Đúng tiến độ/Chậm tiến độ</t>
-  </si>
-  <si>
     <t>- Vấn đề 2:màn hình hiển thị toàn bộ Notification chưa hiển thị chính xác những Noti được đọc rồi(khi swipe
 ListView lên xuống nhiều lần sẽ bị loạn màu).</t>
   </si>
   <si>
+    <t>- Đưa Số lượng cảnh báo lên Notification Bar.
+- Xem xét lại cách hiển thị Notification trên NotificationBar.</t>
+  </si>
+  <si>
     <t>- Công việc 2: chưa hoàn thành.</t>
   </si>
   <si>
     <t>- Công việc 1:Noti trên statusBar</t>
   </si>
   <si>
-    <t>- Vấn đề 2: giải quyết như sau....</t>
+    <t>- Vấn đề 2: giống bên trên</t>
   </si>
   <si>
     <t>- Vấn đề 2: cũng chưa có gì để giải quyết</t>
   </si>
   <si>
-    <t>Trạng thái</t>
+    <t>- Công việc 2: tương tự công việc 1</t>
   </si>
   <si>
     <t>- Công việc 1: Hiển thị được 3 Notification.</t>
   </si>
   <si>
-    <t>Hiển thị 3 Noti riêng biệt,update Noti Count cho Widget...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- Công việc 2:choàn thiện nốt phần NotiScreen</t>
-  </si>
-  <si>
-    <t>- Công việc 1: chưa hoàn thành.</t>
+    <t>- Vấn đề 1: ngồi nghịch linh tinh</t>
   </si>
   <si>
     <t>- Vấn đề 1: chưa có gì để giải quyết
@@ -146,41 +258,22 @@
     <t>Giải quyết vấn đề:</t>
   </si>
   <si>
+    <t>- Công việc 1: Add data phần congvan/congviec/lichbieu vào ArrayList.</t>
+  </si>
+  <si>
+    <t>- Vấn đề 2:Khi xóa 1 bản ghi từ phía server thì có nên cập nhật lại database phía Client không?</t>
+  </si>
+  <si>
     <t>Vấn đề gặp phải</t>
   </si>
   <si>
-    <t>- Vấn đề 2:Khi xóa 1 bản ghi từ phía server thì có nên cập nhật lại database phía Client không?</t>
-  </si>
-  <si>
-    <t>Chậm tiến độ</t>
-  </si>
-  <si>
-    <t>- Vấn đề 1: Hiển  thị được số lượng Notification trên thanh StatusBar,nhưng chưa lấy ra được số lượng Noti 
-phục vụ cho Widget và các mục đích khác.</t>
-  </si>
-  <si>
-    <t>- Vấn đề 2: Nếu số lượng Noti &gt; 2 =&gt;&gt; tự mở màn hình cảnh báo.</t>
-  </si>
-  <si>
     <t>- Công việc 1: hoàn thành 40%</t>
   </si>
   <si>
-    <t>- Vấn đề 1: Chỉ lấy ra được số lượng Noti lần 1 khi chạy Service =&gt;&gt; service chạy lần 2 số lượng Noti sẽ = 0.</t>
-  </si>
-  <si>
-    <t>- Vấn đề 2:cũng chưa có gì</t>
-  </si>
-  <si>
-    <t>- Công việc 2: Giải quyết vấn đề tự mở màn hình cảnh báo khi số lượng Noti &gt; 2.</t>
+    <t>- Vấn đề 2: code loạn xạ.</t>
   </si>
   <si>
     <t>- Vấn đề 2: chưa giải quyết được.</t>
-  </si>
-  <si>
-    <t>Kế hoạch ngày mai</t>
-  </si>
-  <si>
-    <t>Báo cáo công việc hàng ngày - tháng 10/2014</t>
   </si>
 </sst>
 </file>
@@ -311,7 +404,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -348,6 +441,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0"/>
@@ -710,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C118"/>
+  <dimension ref="A2:C188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -718,14 +814,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.0" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.0" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.007812" style="1" customWidth="1"/>
-    <col min="3" max="3" width="96.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.0078125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.027344" style="1" customWidth="1"/>
+    <col min="3" max="3" width="96.234375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="31.5" customHeight="1">
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -737,59 +833,59 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="B9" s="5"/>
       <c r="C9" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="7" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C12" s="7"/>
     </row>
@@ -802,59 +898,59 @@
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="B14" s="5" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="B17" s="5" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="7" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="B21" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7"/>
     </row>
@@ -867,59 +963,59 @@
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="B23" s="5" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="30" customHeight="1">
       <c r="B24" s="5" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="B25" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="B26" s="5" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="B28" s="5" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="B30" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C30" s="7"/>
     </row>
@@ -931,59 +1027,59 @@
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="B32" s="5" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1">
       <c r="B33" s="5" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="B34" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="B35" s="5" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="B36" s="5"/>
       <c r="C36" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="B38" s="5"/>
       <c r="C38" s="8" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="B39" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C39" s="7"/>
     </row>
@@ -995,34 +1091,34 @@
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="B41" s="10" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="B42" s="10" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="B44" s="10" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1">
@@ -1031,15 +1127,15 @@
     </row>
     <row r="46" ht="15" customHeight="1">
       <c r="B46" s="10" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1">
@@ -1050,10 +1146,10 @@
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="B49" s="10" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1">
@@ -1062,10 +1158,10 @@
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="B51" s="14" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1">
@@ -1074,18 +1170,18 @@
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="B53" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="B54" s="14" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1">
@@ -1094,10 +1190,10 @@
     </row>
     <row r="56" ht="15" customHeight="1">
       <c r="B56" s="14" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1">
@@ -1106,7 +1202,7 @@
     </row>
     <row r="58" ht="15" customHeight="1">
       <c r="B58" s="10" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1">
@@ -1117,10 +1213,10 @@
     </row>
     <row r="60" ht="15" customHeight="1">
       <c r="B60" s="14" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1">
@@ -1129,10 +1225,10 @@
     </row>
     <row r="62" ht="15" customHeight="1">
       <c r="B62" s="14" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1">
@@ -1141,18 +1237,18 @@
     </row>
     <row r="64" ht="15" customHeight="1">
       <c r="B64" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1">
       <c r="B65" s="14" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1">
@@ -1161,10 +1257,10 @@
     </row>
     <row r="67" ht="15" customHeight="1">
       <c r="B67" s="14" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1">
@@ -1173,10 +1269,10 @@
     </row>
     <row r="69" ht="15" customHeight="1">
       <c r="B69" s="10" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1">
@@ -1187,10 +1283,10 @@
     </row>
     <row r="71" ht="15" customHeight="1">
       <c r="B71" s="5" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1">
@@ -1199,10 +1295,10 @@
     </row>
     <row r="73" ht="15" customHeight="1">
       <c r="B73" s="5" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1">
@@ -1211,46 +1307,46 @@
     </row>
     <row r="75" ht="15" customHeight="1">
       <c r="B75" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1">
       <c r="B76" s="5" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="B77" s="5"/>
       <c r="C77" s="7" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
       <c r="B78" s="5" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
       <c r="B79" s="5"/>
       <c r="C79" s="8" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="B80" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -1261,52 +1357,52 @@
     </row>
     <row r="82" ht="15" customHeight="1">
       <c r="B82" s="5" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="B83" s="5"/>
       <c r="C83" s="6" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="B84" s="5" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
       <c r="B85" s="5"/>
       <c r="C85" s="6" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
       <c r="B86" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="B87" s="5" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
       <c r="B88" s="5"/>
       <c r="C88" s="6" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -1315,24 +1411,24 @@
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="B90" s="5" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="B91" s="5"/>
       <c r="C91" s="8" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="B92" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
@@ -1343,46 +1439,46 @@
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="B94" s="5" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="B95" s="5"/>
       <c r="C95" s="15" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="B96" s="5" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="B97" s="5"/>
       <c r="C97" s="6" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="B98" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="B99" s="5" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
@@ -1392,21 +1488,21 @@
     <row r="101" ht="15" customHeight="1">
       <c r="B101" s="5"/>
       <c r="C101" s="7" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="B102" s="5" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="B103" s="5"/>
       <c r="C103" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
@@ -1415,60 +1511,60 @@
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="B105" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
-      <c r="B106" s="19" t="n">
+      <c r="B106" s="3" t="n">
         <v>41931.0</v>
       </c>
       <c r="C106" s="4"/>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="B107" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" s="15" t="s">
         <v>2</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="B108" s="5"/>
       <c r="C108" s="15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="B109" s="5" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="B110" s="5"/>
       <c r="C110" s="6" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="B111" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="B112" s="5" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
@@ -1478,21 +1574,21 @@
     <row r="114" ht="15" customHeight="1">
       <c r="B114" s="5"/>
       <c r="C114" s="7" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="B115" s="5" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="B116" s="5"/>
       <c r="C116" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
@@ -1501,14 +1597,464 @@
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="B118" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C118" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" ht="15" customHeight="1">
+      <c r="B119" s="19" t="n">
+        <v>41932.0</v>
+      </c>
+      <c r="C119" s="4"/>
+    </row>
+    <row r="120" ht="15" customHeight="1">
+      <c r="B120" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" ht="15" customHeight="1">
+      <c r="B121" s="5"/>
+      <c r="C121" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" ht="15" customHeight="1">
+      <c r="B122" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" ht="15" customHeight="1">
+      <c r="B123" s="5"/>
+      <c r="C123" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" ht="15" customHeight="1">
+      <c r="B124" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" ht="15" customHeight="1">
+      <c r="B125" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" ht="15" customHeight="1">
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+    </row>
+    <row r="127" ht="15" customHeight="1">
+      <c r="B127" s="5"/>
+      <c r="C127" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" ht="15" customHeight="1">
+      <c r="B128" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="129" ht="15" customHeight="1">
+      <c r="B129" s="5"/>
+      <c r="C129" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="130" ht="15" customHeight="1">
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+    </row>
+    <row r="131" ht="15" customHeight="1">
+      <c r="B131" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C131" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="132" ht="15" customHeight="1">
+      <c r="B132" s="5"/>
+      <c r="C132" s="20"/>
+    </row>
+    <row r="133" ht="15" customHeight="1">
+      <c r="B133" s="19" t="n">
+        <v>41933.0</v>
+      </c>
+      <c r="C133" s="4"/>
+    </row>
+    <row r="134" ht="15" customHeight="1">
+      <c r="B134" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" ht="15" customHeight="1">
+      <c r="B135" s="5"/>
+      <c r="C135" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" ht="15" customHeight="1">
+      <c r="B136" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" ht="15" customHeight="1">
+      <c r="B137" s="5"/>
+      <c r="C137" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" ht="15" customHeight="1">
+      <c r="B138" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139" ht="15" customHeight="1">
+      <c r="B139" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" ht="15" customHeight="1">
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+    </row>
+    <row r="141" ht="15" customHeight="1">
+      <c r="B141" s="5"/>
+      <c r="C141" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" ht="15" customHeight="1">
+      <c r="B142" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="143" ht="15" customHeight="1">
+      <c r="B143" s="5"/>
+      <c r="C143" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="144" ht="15" customHeight="1">
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+    </row>
+    <row r="145" ht="15" customHeight="1">
+      <c r="B145" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C145" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" ht="15" customHeight="1">
+      <c r="B146" s="5"/>
+      <c r="C146" s="20"/>
+    </row>
+    <row r="147" ht="15" customHeight="1">
+      <c r="B147" s="19" t="n">
+        <v>41934.0</v>
+      </c>
+      <c r="C147" s="4"/>
+    </row>
+    <row r="148" ht="15" customHeight="1">
+      <c r="B148" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C148" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" ht="15" customHeight="1">
+      <c r="B149" s="5"/>
+      <c r="C149" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="150" ht="15" customHeight="1">
+      <c r="B150" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" ht="15" customHeight="1">
+      <c r="B151" s="5"/>
+      <c r="C151" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" ht="15" customHeight="1">
+      <c r="B152" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153" ht="15" customHeight="1">
+      <c r="B153" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="154" ht="15" customHeight="1">
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+    </row>
+    <row r="155" ht="15" customHeight="1">
+      <c r="B155" s="5"/>
+      <c r="C155" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="156" ht="15" customHeight="1">
+      <c r="B156" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C156" s="17" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="157" ht="15" customHeight="1">
+      <c r="B157" s="5"/>
+      <c r="C157" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" ht="15" customHeight="1">
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+    </row>
+    <row r="159" ht="15" customHeight="1">
+      <c r="B159" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C159" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" ht="15" customHeight="1">
+      <c r="B160" s="5"/>
+      <c r="C160" s="20"/>
+    </row>
+    <row r="161" ht="15" customHeight="1">
+      <c r="B161" s="19" t="n">
+        <v>41935.0</v>
+      </c>
+      <c r="C161" s="4"/>
+    </row>
+    <row r="162" ht="15" customHeight="1">
+      <c r="B162" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C162" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="163" ht="15" customHeight="1">
+      <c r="B163" s="5"/>
+      <c r="C163" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" ht="15" customHeight="1">
+      <c r="B164" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" ht="15" customHeight="1">
+      <c r="B165" s="5"/>
+      <c r="C165" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" ht="15" customHeight="1">
+      <c r="B166" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C166" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167" ht="15" customHeight="1">
+      <c r="B167" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="168" ht="15" customHeight="1">
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+    </row>
+    <row r="169" ht="15" customHeight="1">
+      <c r="B169" s="5"/>
+      <c r="C169" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="170" ht="15" customHeight="1">
+      <c r="B170" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C170" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" ht="15" customHeight="1">
+      <c r="B171" s="5"/>
+      <c r="C171" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="172" ht="15" customHeight="1">
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+    </row>
+    <row r="173" ht="15" customHeight="1">
+      <c r="B173" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="174" ht="15" customHeight="1">
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+    </row>
+    <row r="175" ht="15" customHeight="1">
+      <c r="B175" s="19" t="n">
+        <v>41936.0</v>
+      </c>
+      <c r="C175" s="4"/>
+    </row>
+    <row r="176" ht="15" customHeight="1">
+      <c r="B176" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C176" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="177" ht="15" customHeight="1">
+      <c r="B177" s="5"/>
+      <c r="C177" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="178" ht="15" customHeight="1">
+      <c r="B178" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="179" ht="15" customHeight="1">
+      <c r="B179" s="5"/>
+      <c r="C179" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="180" ht="15" customHeight="1">
+      <c r="B180" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C180" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="181" ht="15" customHeight="1">
+      <c r="B181" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="182" ht="15" customHeight="1">
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+    </row>
+    <row r="183" ht="15" customHeight="1">
+      <c r="B183" s="5"/>
+      <c r="C183" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="184" ht="15" customHeight="1">
+      <c r="B184" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C184" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="185" ht="15" customHeight="1">
+      <c r="B185" s="5"/>
+      <c r="C185" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="186" ht="15" customHeight="1">
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+    </row>
+    <row r="187" ht="15" customHeight="1">
+      <c r="B187" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" ht="15" customHeight="1">
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="87">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
@@ -1556,6 +2102,46 @@
     <mergeCell ref="C112:C113"/>
     <mergeCell ref="B115:B117"/>
     <mergeCell ref="C116:C117"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="B181:B183"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:C188"/>
   </mergeCells>
   <printOptions/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/Document/3_Report/Daily_October/ToanNM_Daily_report_-_October.xlsx
+++ b/Document/3_Report/Daily_October/ToanNM_Daily_report_-_October.xlsx
@@ -45,10 +45,6 @@
     <t>- Công việc 1: chưa có gì.</t>
   </si>
   <si>
-    <t>- Google Image search Notification.
-- Tìm hiểu kĩ hơn về Notification.</t>
-  </si>
-  <si>
     <t>- Công việc 2: hoàn thành 90%</t>
   </si>
   <si>
@@ -56,18 +52,28 @@
   </si>
   <si>
     <t>- Vấn đề 1:chưa hiển thị được đầy đủ 3 Noti riêng biệt.</t>
+  </si>
+  <si>
+    <t>- Stop service khi đăng xuất
+- Continue on Google search about Notification on Android.</t>
   </si>
   <si>
     <t>- Vấn đề 1:chưa có gì
 - Vấn đề 2:cũng chưa có gì</t>
   </si>
   <si>
+    <t>- Vấn đề 1:...</t>
+  </si>
+  <si>
     <t>- Vấn đề 1: chưa có gì để giải quyết</t>
   </si>
   <si>
     <t>- Công việc 1: hoàn thành.</t>
   </si>
   <si>
+    <t>- Vấn đề 2:</t>
+  </si>
+  <si>
     <t>- Công việc 2:choàn thiện nốt phần NotiScreen</t>
   </si>
   <si>
@@ -119,6 +125,9 @@
     <t>thêm 1 số Condition để kiểm tra,cố gắng giải quyết 2 vấn đề trên.</t>
   </si>
   <si>
+    <t>- Vấn đề 1: mới chỉ hiển thị được tên 1 công việc/công văn/lịch biểu nội dung 1 công việc/công văn/lịch biểu trên thanh status bar.</t>
+  </si>
+  <si>
     <t>- Vấn đề 2:cũng chưa có gì</t>
   </si>
   <si>
@@ -144,9 +153,6 @@
   </si>
   <si>
     <t>Kế hoạch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Vấn đề 1: </t>
   </si>
   <si>
     <t>- Vấn đề 1: chưa biết làm gì</t>
@@ -196,9 +202,6 @@
     <t>- Công việc 2: Cố gắng để hiển thị đầy đủ nội dung,tên của 1 Notification trên NotificationBar.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Vấn đề 2: </t>
-  </si>
-  <si>
     <t>- Công việc 1: Hiển thị Notification trên NotificationBar theo đúng Requirements</t>
   </si>
   <si>
@@ -248,7 +251,13 @@
     <t>- Công việc 1: Hiển thị được 3 Notification.</t>
   </si>
   <si>
+    <t>- Vấn đề 2:...đang tìm hiểu google,stackoverflow</t>
+  </si>
+  <si>
     <t>- Vấn đề 1: ngồi nghịch linh tinh</t>
+  </si>
+  <si>
+    <t>- Vấn đề 1:</t>
   </si>
   <si>
     <t>- Vấn đề 1: chưa có gì để giải quyết
@@ -268,6 +277,9 @@
   </si>
   <si>
     <t>- Công việc 1: hoàn thành 40%</t>
+  </si>
+  <si>
+    <t>- Vấn đề 2: Khi có 2 cảnh báo trở lên,vẫn chưa hiển thị được tên của 2 cảnh báo=&gt;&gt; mới chỉ 1,và 1.</t>
   </si>
   <si>
     <t>- Vấn đề 2: code loạn xạ.</t>
@@ -440,10 +452,10 @@
     <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="6" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0"/>
@@ -806,7 +818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C188"/>
+  <dimension ref="A2:C202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -814,14 +826,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.0" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.0078125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.027344" style="1" customWidth="1"/>
-    <col min="3" max="3" width="96.234375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.019531" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="96.33203" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="31.5" customHeight="1">
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -833,7 +845,7 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>1</v>
@@ -841,7 +853,7 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>4</v>
@@ -849,43 +861,43 @@
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="B9" s="5"/>
       <c r="C9" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="B10" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7"/>
     </row>
@@ -898,7 +910,7 @@
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>1</v>
@@ -906,51 +918,51 @@
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="B15" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="B16" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="B17" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="B19" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="B21" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7"/>
     </row>
@@ -963,7 +975,7 @@
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="B23" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>1</v>
@@ -971,51 +983,51 @@
     </row>
     <row r="24" ht="30" customHeight="1">
       <c r="B24" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="B25" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="B26" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="B28" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="B30" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C30" s="7"/>
     </row>
@@ -1027,7 +1039,7 @@
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>1</v>
@@ -1035,51 +1047,51 @@
     </row>
     <row r="33" ht="30" customHeight="1">
       <c r="B33" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="B34" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="B35" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="B36" s="5"/>
       <c r="C36" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="B37" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="B38" s="5"/>
       <c r="C38" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="B39" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C39" s="7"/>
     </row>
@@ -1091,7 +1103,7 @@
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="B41" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>1</v>
@@ -1099,23 +1111,23 @@
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="B42" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="B44" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>12</v>
@@ -1127,15 +1139,15 @@
     </row>
     <row r="46" ht="15" customHeight="1">
       <c r="B46" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="B47" s="10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1">
@@ -1146,7 +1158,7 @@
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="B49" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>1</v>
@@ -1158,10 +1170,10 @@
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="B51" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1">
@@ -1170,15 +1182,15 @@
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="B53" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="B54" s="14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>12</v>
@@ -1190,10 +1202,10 @@
     </row>
     <row r="56" ht="15" customHeight="1">
       <c r="B56" s="14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1">
@@ -1202,7 +1214,7 @@
     </row>
     <row r="58" ht="15" customHeight="1">
       <c r="B58" s="10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1">
@@ -1213,7 +1225,7 @@
     </row>
     <row r="60" ht="15" customHeight="1">
       <c r="B60" s="14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>1</v>
@@ -1225,10 +1237,10 @@
     </row>
     <row r="62" ht="15" customHeight="1">
       <c r="B62" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1">
@@ -1237,15 +1249,15 @@
     </row>
     <row r="64" ht="15" customHeight="1">
       <c r="B64" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1">
       <c r="B65" s="14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>12</v>
@@ -1257,10 +1269,10 @@
     </row>
     <row r="67" ht="15" customHeight="1">
       <c r="B67" s="14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1">
@@ -1269,10 +1281,10 @@
     </row>
     <row r="69" ht="15" customHeight="1">
       <c r="B69" s="10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1">
@@ -1283,7 +1295,7 @@
     </row>
     <row r="71" ht="15" customHeight="1">
       <c r="B71" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>6</v>
@@ -1295,10 +1307,10 @@
     </row>
     <row r="73" ht="15" customHeight="1">
       <c r="B73" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1">
@@ -1307,46 +1319,46 @@
     </row>
     <row r="75" ht="15" customHeight="1">
       <c r="B75" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1">
       <c r="B76" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="B77" s="5"/>
       <c r="C77" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
       <c r="B78" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
       <c r="B79" s="5"/>
       <c r="C79" s="8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="B80" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -1357,52 +1369,52 @@
     </row>
     <row r="82" ht="15" customHeight="1">
       <c r="B82" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="B83" s="5"/>
       <c r="C83" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="B84" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
       <c r="B85" s="5"/>
       <c r="C85" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
       <c r="B86" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="B87" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
       <c r="B88" s="5"/>
       <c r="C88" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -1411,24 +1423,24 @@
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="B90" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="B91" s="5"/>
       <c r="C91" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="B92" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
@@ -1439,46 +1451,46 @@
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="B94" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="B95" s="5"/>
       <c r="C95" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="B96" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="B97" s="5"/>
       <c r="C97" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="B98" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="B99" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
@@ -1488,15 +1500,15 @@
     <row r="101" ht="15" customHeight="1">
       <c r="B101" s="5"/>
       <c r="C101" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="B102" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
@@ -1511,10 +1523,10 @@
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="B105" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
@@ -1525,7 +1537,7 @@
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="B107" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>2</v>
@@ -1534,37 +1546,37 @@
     <row r="108" ht="15" customHeight="1">
       <c r="B108" s="5"/>
       <c r="C108" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="B109" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="B110" s="5"/>
       <c r="C110" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="B111" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="B112" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
@@ -1574,15 +1586,15 @@
     <row r="114" ht="15" customHeight="1">
       <c r="B114" s="5"/>
       <c r="C114" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="B115" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
@@ -1597,21 +1609,21 @@
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="B118" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
-      <c r="B119" s="19" t="n">
+      <c r="B119" s="3" t="n">
         <v>41932.0</v>
       </c>
       <c r="C119" s="4"/>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="B120" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C120" s="15" t="s">
         <v>7</v>
@@ -1620,15 +1632,15 @@
     <row r="121" ht="15" customHeight="1">
       <c r="B121" s="5"/>
       <c r="C121" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="B122" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
@@ -1639,18 +1651,18 @@
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="B124" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="B125" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
@@ -1660,21 +1672,21 @@
     <row r="127" ht="15" customHeight="1">
       <c r="B127" s="5"/>
       <c r="C127" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="B128" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C128" s="17" t="s">
         <v>72</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="B129" s="5"/>
       <c r="C129" s="18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
@@ -1683,25 +1695,25 @@
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="B131" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C131" s="20" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="B132" s="5"/>
-      <c r="C132" s="20"/>
+      <c r="C132" s="19"/>
     </row>
     <row r="133" ht="15" customHeight="1">
-      <c r="B133" s="19" t="n">
+      <c r="B133" s="3" t="n">
         <v>41933.0</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="B134" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C134" s="15" t="s">
         <v>7</v>
@@ -1710,15 +1722,15 @@
     <row r="135" ht="15" customHeight="1">
       <c r="B135" s="5"/>
       <c r="C135" s="15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="B136" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
@@ -1729,18 +1741,18 @@
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="B138" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="B139" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
@@ -1750,21 +1762,21 @@
     <row r="141" ht="15" customHeight="1">
       <c r="B141" s="5"/>
       <c r="C141" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="B142" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="B143" s="5"/>
       <c r="C143" s="18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
@@ -1773,42 +1785,42 @@
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="B145" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C145" s="20" t="s">
-        <v>18</v>
+        <v>38</v>
+      </c>
+      <c r="C145" s="19" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="B146" s="5"/>
-      <c r="C146" s="20"/>
+      <c r="C146" s="19"/>
     </row>
     <row r="147" ht="15" customHeight="1">
-      <c r="B147" s="19" t="n">
+      <c r="B147" s="3" t="n">
         <v>41934.0</v>
       </c>
       <c r="C147" s="4"/>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="B148" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="B149" s="5"/>
       <c r="C149" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="B150" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
@@ -1819,18 +1831,18 @@
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="B152" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="B153" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
@@ -1840,21 +1852,21 @@
     <row r="155" ht="15" customHeight="1">
       <c r="B155" s="5"/>
       <c r="C155" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="B156" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="B157" s="5"/>
       <c r="C157" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
@@ -1863,28 +1875,28 @@
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="B159" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C159" s="20" t="s">
-        <v>18</v>
+        <v>38</v>
+      </c>
+      <c r="C159" s="19" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="B160" s="5"/>
-      <c r="C160" s="20"/>
+      <c r="C160" s="19"/>
     </row>
     <row r="161" ht="15" customHeight="1">
-      <c r="B161" s="19" t="n">
+      <c r="B161" s="3" t="n">
         <v>41935.0</v>
       </c>
       <c r="C161" s="4"/>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="B162" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C162" s="15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
@@ -1895,10 +1907,10 @@
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="B164" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
@@ -1909,18 +1921,18 @@
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="B166" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="B167" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
@@ -1930,21 +1942,21 @@
     <row r="169" ht="15" customHeight="1">
       <c r="B169" s="5"/>
       <c r="C169" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="B170" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="B171" s="5"/>
       <c r="C171" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
@@ -1953,10 +1965,10 @@
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="B173" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
@@ -1964,53 +1976,53 @@
       <c r="C174" s="5"/>
     </row>
     <row r="175" ht="15" customHeight="1">
-      <c r="B175" s="19" t="n">
+      <c r="B175" s="3" t="n">
         <v>41936.0</v>
       </c>
       <c r="C175" s="4"/>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="B176" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C176" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="B177" s="5"/>
       <c r="C177" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="B178" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="B179" s="5"/>
       <c r="C179" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="B180" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="B181" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
@@ -2020,21 +2032,21 @@
     <row r="183" ht="15" customHeight="1">
       <c r="B183" s="5"/>
       <c r="C183" s="7" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="B184" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="B185" s="5"/>
       <c r="C185" s="18" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
@@ -2043,18 +2055,106 @@
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="B187" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
     </row>
+    <row r="189" ht="15" customHeight="1">
+      <c r="B189" s="20" t="n">
+        <v>41937.0</v>
+      </c>
+      <c r="C189" s="4"/>
+    </row>
+    <row r="190" ht="15" customHeight="1">
+      <c r="B190" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C190" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="191" ht="15" customHeight="1">
+      <c r="B191" s="5"/>
+      <c r="C191" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="192" ht="15" customHeight="1">
+      <c r="B192" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="193" ht="15" customHeight="1">
+      <c r="B193" s="5"/>
+      <c r="C193" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="194" ht="15" customHeight="1">
+      <c r="B194" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C194" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195" ht="15" customHeight="1">
+      <c r="B195" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="196" ht="15" customHeight="1">
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+    </row>
+    <row r="197" ht="15" customHeight="1">
+      <c r="B197" s="5"/>
+      <c r="C197" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" ht="15" customHeight="1">
+      <c r="B198" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C198" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="199" ht="15" customHeight="1">
+      <c r="B199" s="5"/>
+      <c r="C199" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" ht="15" customHeight="1">
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+    </row>
+    <row r="201" ht="15" customHeight="1">
+      <c r="B201" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C201" s="6"/>
+    </row>
+    <row r="202" ht="15" customHeight="1">
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="95">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
@@ -2142,6 +2242,14 @@
     <mergeCell ref="C185:C186"/>
     <mergeCell ref="B187:B188"/>
     <mergeCell ref="C187:C188"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="B195:B197"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="B198:B200"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="C201:C202"/>
   </mergeCells>
   <printOptions/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/Document/3_Report/Daily_October/ToanNM_Daily_report_-_October.xlsx
+++ b/Document/3_Report/Daily_October/ToanNM_Daily_report_-_October.xlsx
@@ -27,6 +27,9 @@
     <t>- Công việc 1: Lấy ra số lượng Notification.</t>
   </si>
   <si>
+    <t>- Vấn đề 3:thiếu mất 1 tên/nội dung của 1 Notification.</t>
+  </si>
+  <si>
     <t>- Công việc 2: hoàn thành.</t>
   </si>
   <si>
@@ -83,6 +86,12 @@
     <t>- Công việc 2: như trên,vẫn chưa có gì.</t>
   </si>
   <si>
+    <t>- Vấn đề 1:vẫn chưa hiển thị được Nội dung/Tên của 3 Notification trên nhiều dòng.</t>
+  </si>
+  <si>
+    <t>- Công việc 2: Check lại Code</t>
+  </si>
+  <si>
     <t>Chưa có gì</t>
   </si>
   <si>
@@ -113,6 +122,15 @@
     <t>- Công việc 1: chưa hoàn thành.</t>
   </si>
   <si>
+    <t>- Vấn đề 2: chỉ hiển thị được 1 notification multiple lines.</t>
+  </si>
+  <si>
+    <t>- Công việc 1: Hiển thị Notification multiple lines</t>
+  </si>
+  <si>
+    <t>- Vấn đề 3:</t>
+  </si>
+  <si>
     <t>Chậm tiến độ</t>
   </si>
   <si>
@@ -156,6 +174,9 @@
   </si>
   <si>
     <t>- Vấn đề 1: chưa biết làm gì</t>
+  </si>
+  <si>
+    <t>- Vấn đề 2:chưa tìm được vị trí thích hợp để đặt Method thoát Cảnh báo.</t>
   </si>
   <si>
     <t>- Vấn đề 1:chưa có gì</t>
@@ -184,6 +205,9 @@
 - Công việc 2: hoàn thành</t>
   </si>
   <si>
+    <t>- Công việc 2: Cố gắng để hiển thị đầy đủ nội dung,tên của mỗi Notification trên NotificationBar.</t>
+  </si>
+  <si>
     <t>- Vấn đề 1: đôi khi Update được DB khi có Noti mới,đôi khi không.</t>
   </si>
   <si>
@@ -197,6 +221,9 @@
   </si>
   <si>
     <t>- Vấn đề 2: chưa giải quyết được</t>
+  </si>
+  <si>
+    <t>- Công việc 1: Debug</t>
   </si>
   <si>
     <t>- Công việc 2: Cố gắng để hiển thị đầy đủ nội dung,tên của 1 Notification trên NotificationBar.</t>
@@ -218,11 +245,17 @@
     <t>Kết quả đạt được</t>
   </si>
   <si>
+    <t>- Vấn đề 1: thiếu tên/nội dung 1 cv/cv/lb.</t>
+  </si>
+  <si>
     <t>- Vấn đề 1: chưa có gì để giải quyết
 - Vấn đề 2:cũng chưa có gì để giải quyết</t>
   </si>
   <si>
     <t>- Vấn đề 1: chưa giải quyết được.</t>
+  </si>
+  <si>
+    <t>Debug,check lại code.</t>
   </si>
   <si>
     <t>- Vấn đề 2:màn hình hiển thị toàn bộ Notification chưa hiển thị chính xác những Noti được đọc rồi(khi swipe
@@ -416,7 +449,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -431,18 +464,18 @@
     <xf numFmtId="164" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="4" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="4" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -455,7 +488,32 @@
     <xf numFmtId="164" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" applyFont="1" fillId="6" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="6" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" applyFont="1" fillId="6" applyFill="1" borderId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0"/>
@@ -818,7 +876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C202"/>
+  <dimension ref="A2:C277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -826,14 +884,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.0" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.019531" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="96.33203" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.035156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.082031" style="1" customWidth="1"/>
+    <col min="3" max="3" width="96.53906" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="31.5" customHeight="1">
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -845,7 +903,7 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="B5" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>1</v>
@@ -853,51 +911,51 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="B6" s="5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="B8" s="5" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="B9" s="5"/>
       <c r="C9" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="B10" s="5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C12" s="7"/>
     </row>
@@ -910,7 +968,7 @@
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>1</v>
@@ -918,51 +976,51 @@
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="B15" s="5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="B17" s="5" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="B19" s="5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="B21" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C21" s="7"/>
     </row>
@@ -975,7 +1033,7 @@
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="B23" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>1</v>
@@ -983,51 +1041,51 @@
     </row>
     <row r="24" ht="30" customHeight="1">
       <c r="B24" s="5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="B25" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="B26" s="5" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="B28" s="5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="B30" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C30" s="7"/>
     </row>
@@ -1039,7 +1097,7 @@
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="B32" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>1</v>
@@ -1047,51 +1105,51 @@
     </row>
     <row r="33" ht="30" customHeight="1">
       <c r="B33" s="5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="B34" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="B35" s="5" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="B36" s="5"/>
       <c r="C36" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="B37" s="5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="B38" s="5"/>
       <c r="C38" s="8" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="B39" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C39" s="7"/>
     </row>
@@ -1103,1058 +1161,1532 @@
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="B41" s="10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
-      <c r="B42" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>49</v>
-      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="B43" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>30</v>
+        <v>69</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
-      <c r="B44" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
     </row>
     <row r="45" ht="15" customHeight="1">
-      <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
+      <c r="B45" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="46" ht="15" customHeight="1">
-      <c r="B46" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>61</v>
+      <c r="B46" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1">
-      <c r="B47" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="11"/>
     </row>
     <row r="48" ht="15" customHeight="1">
-      <c r="B48" s="9" t="n">
+      <c r="B48" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" ht="15" customHeight="1">
+      <c r="B49" s="10"/>
+      <c r="C49" s="13"/>
+    </row>
+    <row r="50" ht="15" customHeight="1">
+      <c r="B50" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" ht="15" customHeight="1">
+      <c r="B51" s="9" t="n">
         <v>41926.0</v>
       </c>
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" ht="15" customHeight="1">
-      <c r="B49" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="13" t="s">
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" ht="15" customHeight="1">
+      <c r="B52" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1">
-      <c r="B50" s="10"/>
-      <c r="C50" s="13"/>
-    </row>
-    <row r="51" ht="15" customHeight="1">
-      <c r="B51" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="12" t="s">
+    <row r="53" ht="15" customHeight="1">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+    </row>
+    <row r="54" ht="15" customHeight="1">
+      <c r="B54" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" ht="15" customHeight="1">
+      <c r="B55" s="10"/>
+      <c r="C55" s="13"/>
+    </row>
+    <row r="56" ht="15" customHeight="1">
+      <c r="B56" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" ht="15" customHeight="1">
+      <c r="B57" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" ht="15" customHeight="1">
+      <c r="B58" s="10"/>
+      <c r="C58" s="13"/>
+    </row>
+    <row r="59" ht="15" customHeight="1">
+      <c r="B59" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" ht="15" customHeight="1">
+      <c r="B60" s="10"/>
+      <c r="C60" s="13"/>
+    </row>
+    <row r="61" ht="15" customHeight="1">
+      <c r="B61" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" ht="15" customHeight="1">
+      <c r="B62" s="9" t="n">
+        <v>41927.0</v>
+      </c>
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" ht="15" customHeight="1">
+      <c r="B63" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" ht="15" customHeight="1">
-      <c r="B52" s="14"/>
-      <c r="C52" s="12"/>
-    </row>
-    <row r="53" ht="15" customHeight="1">
-      <c r="B53" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" ht="15" customHeight="1">
-      <c r="B54" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" ht="15" customHeight="1">
-      <c r="B55" s="14"/>
-      <c r="C55" s="12"/>
-    </row>
-    <row r="56" ht="15" customHeight="1">
-      <c r="B56" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" ht="15" customHeight="1">
-      <c r="B57" s="14"/>
-      <c r="C57" s="12"/>
-    </row>
-    <row r="58" ht="15" customHeight="1">
-      <c r="B58" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" ht="15" customHeight="1">
-      <c r="B59" s="9" t="n">
-        <v>41927.0</v>
-      </c>
-      <c r="C59" s="4"/>
-    </row>
-    <row r="60" ht="15" customHeight="1">
-      <c r="B60" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="13" t="s">
+      <c r="C63" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="61" ht="15" customHeight="1">
-      <c r="B61" s="14"/>
-      <c r="C61" s="13"/>
-    </row>
-    <row r="62" ht="15" customHeight="1">
-      <c r="B62" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="12" t="s">
+    <row r="64" ht="15" customHeight="1">
+      <c r="B64" s="10"/>
+      <c r="C64" s="14"/>
+    </row>
+    <row r="65" ht="15" customHeight="1">
+      <c r="B65" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" ht="15" customHeight="1">
+      <c r="B66" s="10"/>
+      <c r="C66" s="13"/>
+    </row>
+    <row r="67" ht="15" customHeight="1">
+      <c r="B67" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" ht="15" customHeight="1">
+      <c r="B68" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" ht="15" customHeight="1">
+      <c r="B69" s="10"/>
+      <c r="C69" s="13"/>
+    </row>
+    <row r="70" ht="15" customHeight="1">
+      <c r="B70" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" ht="15" customHeight="1">
+      <c r="B71" s="10"/>
+      <c r="C71" s="13"/>
+    </row>
+    <row r="72" ht="15" customHeight="1">
+      <c r="B72" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" ht="15" customHeight="1">
+      <c r="B73" s="3" t="n">
+        <v>41928.0</v>
+      </c>
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" ht="15" customHeight="1">
+      <c r="B74" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="63" ht="15" customHeight="1">
-      <c r="B63" s="14"/>
-      <c r="C63" s="12"/>
-    </row>
-    <row r="64" ht="15" customHeight="1">
-      <c r="B64" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" ht="15" customHeight="1">
-      <c r="B65" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" ht="15" customHeight="1">
-      <c r="B66" s="14"/>
-      <c r="C66" s="12"/>
-    </row>
-    <row r="67" ht="15" customHeight="1">
-      <c r="B67" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" ht="15" customHeight="1">
-      <c r="B68" s="14"/>
-      <c r="C68" s="12"/>
-    </row>
-    <row r="69" ht="15" customHeight="1">
-      <c r="B69" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" ht="15" customHeight="1">
-      <c r="B70" s="3" t="n">
-        <v>41928.0</v>
-      </c>
-      <c r="C70" s="4"/>
-    </row>
-    <row r="71" ht="15" customHeight="1">
-      <c r="B71" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" ht="15" customHeight="1">
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-    </row>
-    <row r="73" ht="15" customHeight="1">
-      <c r="B73" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" ht="15" customHeight="1">
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
+      <c r="C74" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="75" ht="15" customHeight="1">
-      <c r="B75" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
     </row>
     <row r="76" ht="15" customHeight="1">
       <c r="B76" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>48</v>
+        <v>69</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="B77" s="5"/>
-      <c r="C77" s="7" t="s">
-        <v>77</v>
-      </c>
+      <c r="C77" s="5"/>
     </row>
     <row r="78" ht="15" customHeight="1">
       <c r="B78" s="5" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
-      <c r="B79" s="5"/>
-      <c r="C79" s="8" t="s">
-        <v>82</v>
+      <c r="B79" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
-      <c r="B80" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="B80" s="5"/>
       <c r="C80" s="7" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" ht="15" customHeight="1">
+      <c r="B82" s="5"/>
+      <c r="C82" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" ht="15" customHeight="1">
+      <c r="B83" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" ht="15" customHeight="1">
+      <c r="B84" s="3" t="n">
         <v>41929.0</v>
       </c>
-      <c r="C81" s="4"/>
-    </row>
-    <row r="82" ht="15" customHeight="1">
-      <c r="B82" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="83" ht="15" customHeight="1">
-      <c r="B83" s="5"/>
-      <c r="C83" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" ht="15" customHeight="1">
-      <c r="B84" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>79</v>
-      </c>
+      <c r="C84" s="4"/>
     </row>
     <row r="85" ht="15" customHeight="1">
-      <c r="B85" s="5"/>
+      <c r="B85" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C85" s="6" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
-      <c r="B86" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>30</v>
+      <c r="B86" s="5"/>
+      <c r="C86" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="B87" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>10</v>
+        <v>69</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
       <c r="B88" s="5"/>
       <c r="C88" s="6" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
+      <c r="B89" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="B90" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="B91" s="5"/>
-      <c r="C91" s="8" t="s">
-        <v>54</v>
+      <c r="C91" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
-      <c r="B92" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
     </row>
     <row r="93" ht="15" customHeight="1">
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" ht="15" customHeight="1">
+      <c r="B94" s="5"/>
+      <c r="C94" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" ht="15" customHeight="1">
+      <c r="B95" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" ht="15" customHeight="1">
+      <c r="B96" s="3" t="n">
         <v>41930.0</v>
       </c>
-      <c r="C93" s="4"/>
-    </row>
-    <row r="94" ht="15" customHeight="1">
-      <c r="B94" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="95" ht="15" customHeight="1">
-      <c r="B95" s="5"/>
-      <c r="C95" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="96" ht="15" customHeight="1">
-      <c r="B96" s="5" t="s">
+      <c r="C96" s="4"/>
+    </row>
+    <row r="97" ht="15" customHeight="1">
+      <c r="B97" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" ht="15" customHeight="1">
+      <c r="B98" s="5"/>
+      <c r="C98" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" ht="15" customHeight="1">
-      <c r="B97" s="5"/>
-      <c r="C97" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="98" ht="15" customHeight="1">
-      <c r="B98" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="B99" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
+      <c r="C100" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="101" ht="15" customHeight="1">
-      <c r="B101" s="5"/>
-      <c r="C101" s="7" t="s">
-        <v>31</v>
+      <c r="B101" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="B102" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>36</v>
+        <v>89</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="B103" s="5"/>
-      <c r="C103" s="18" t="s">
-        <v>5</v>
-      </c>
+      <c r="C103" s="5"/>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="B104" s="5"/>
-      <c r="C104" s="18"/>
+      <c r="C104" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="B105" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>33</v>
+        <v>86</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="5"/>
+      <c r="C106" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" ht="15" customHeight="1">
+      <c r="B107" s="5"/>
+      <c r="C107" s="18"/>
+    </row>
+    <row r="108" ht="15" customHeight="1">
+      <c r="B108" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" ht="15" customHeight="1">
+      <c r="B109" s="3" t="n">
         <v>41931.0</v>
       </c>
-      <c r="C106" s="4"/>
-    </row>
-    <row r="107" ht="15" customHeight="1">
-      <c r="B107" s="5" t="s">
+      <c r="C109" s="4"/>
+    </row>
+    <row r="110" ht="15" customHeight="1">
+      <c r="B110" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" ht="15" customHeight="1">
+      <c r="B111" s="5"/>
+      <c r="C111" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" ht="15" customHeight="1">
-      <c r="B108" s="5"/>
-      <c r="C108" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="109" ht="15" customHeight="1">
-      <c r="B109" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="110" ht="15" customHeight="1">
-      <c r="B110" s="5"/>
-      <c r="C110" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="111" ht="15" customHeight="1">
-      <c r="B111" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="B112" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
+      <c r="C113" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="114" ht="15" customHeight="1">
-      <c r="B114" s="5"/>
-      <c r="C114" s="7" t="s">
-        <v>31</v>
+      <c r="B114" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="B115" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>36</v>
+        <v>89</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="B116" s="5"/>
-      <c r="C116" s="18" t="s">
-        <v>5</v>
-      </c>
+      <c r="C116" s="5"/>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="B117" s="5"/>
-      <c r="C117" s="18"/>
+      <c r="C117" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="B118" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>33</v>
+        <v>86</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="5"/>
+      <c r="C119" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" ht="15" customHeight="1">
+      <c r="B120" s="5"/>
+      <c r="C120" s="18"/>
+    </row>
+    <row r="121" ht="15" customHeight="1">
+      <c r="B121" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" ht="15" customHeight="1">
+      <c r="B122" s="3" t="n">
         <v>41932.0</v>
       </c>
-      <c r="C119" s="4"/>
-    </row>
-    <row r="120" ht="15" customHeight="1">
-      <c r="B120" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C120" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" ht="15" customHeight="1">
-      <c r="B121" s="5"/>
-      <c r="C121" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" ht="15" customHeight="1">
-      <c r="B122" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="C122" s="4"/>
     </row>
     <row r="123" ht="15" customHeight="1">
-      <c r="B123" s="5"/>
-      <c r="C123" s="6" t="s">
-        <v>3</v>
+      <c r="B123" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
-      <c r="B124" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>30</v>
+      <c r="B124" s="5"/>
+      <c r="C124" s="15" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="B125" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
+      <c r="C126" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="127" ht="15" customHeight="1">
-      <c r="B127" s="5"/>
-      <c r="C127" s="7" t="s">
-        <v>27</v>
+      <c r="B127" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="B128" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>72</v>
+        <v>89</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="B129" s="5"/>
-      <c r="C129" s="18" t="s">
-        <v>81</v>
-      </c>
+      <c r="C129" s="5"/>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
+      <c r="C130" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="B131" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>51</v>
+        <v>86</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="B132" s="5"/>
-      <c r="C132" s="19"/>
+      <c r="C132" s="18" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="133" ht="15" customHeight="1">
-      <c r="B133" s="3" t="n">
-        <v>41933.0</v>
-      </c>
-      <c r="C133" s="4"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="B134" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C134" s="15" t="s">
-        <v>7</v>
+        <v>44</v>
+      </c>
+      <c r="C134" s="19" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="B135" s="5"/>
-      <c r="C135" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="C135" s="19"/>
     </row>
     <row r="136" ht="15" customHeight="1">
-      <c r="B136" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B136" s="3" t="n">
+        <v>41933.0</v>
+      </c>
+      <c r="C136" s="4"/>
     </row>
     <row r="137" ht="15" customHeight="1">
-      <c r="B137" s="5"/>
-      <c r="C137" s="6" t="s">
-        <v>3</v>
+      <c r="B137" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
-      <c r="B138" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>30</v>
+      <c r="B138" s="5"/>
+      <c r="C138" s="15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="B139" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
+      <c r="C140" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="141" ht="15" customHeight="1">
-      <c r="B141" s="5"/>
-      <c r="C141" s="7" t="s">
-        <v>27</v>
+      <c r="B141" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="B142" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C142" s="17" t="s">
-        <v>42</v>
+        <v>89</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="B143" s="5"/>
-      <c r="C143" s="18" t="s">
-        <v>53</v>
-      </c>
+      <c r="C143" s="5"/>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
+      <c r="C144" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="B145" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C145" s="19" t="s">
-        <v>20</v>
+        <v>86</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="B146" s="5"/>
-      <c r="C146" s="19"/>
+      <c r="C146" s="18" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="147" ht="15" customHeight="1">
-      <c r="B147" s="3" t="n">
-        <v>41934.0</v>
-      </c>
-      <c r="C147" s="4"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="B148" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C148" s="15" t="s">
-        <v>9</v>
+        <v>44</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="B149" s="5"/>
-      <c r="C149" s="15" t="s">
-        <v>69</v>
-      </c>
+      <c r="C149" s="19"/>
     </row>
     <row r="150" ht="15" customHeight="1">
-      <c r="B150" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B150" s="3" t="n">
+        <v>41934.0</v>
+      </c>
+      <c r="C150" s="4"/>
     </row>
     <row r="151" ht="15" customHeight="1">
-      <c r="B151" s="5"/>
-      <c r="C151" s="6" t="s">
-        <v>3</v>
+      <c r="B151" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C151" s="15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
-      <c r="B152" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>30</v>
+      <c r="B152" s="5"/>
+      <c r="C152" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="B153" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
+      <c r="C154" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="155" ht="15" customHeight="1">
-      <c r="B155" s="5"/>
-      <c r="C155" s="7" t="s">
-        <v>67</v>
+      <c r="B155" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="B156" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C156" s="17" t="s">
-        <v>22</v>
+        <v>89</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="B157" s="5"/>
-      <c r="C157" s="18" t="s">
-        <v>28</v>
-      </c>
+      <c r="C157" s="5"/>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
+      <c r="C158" s="7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="B159" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C159" s="19" t="s">
-        <v>20</v>
+        <v>86</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="B160" s="5"/>
-      <c r="C160" s="19"/>
+      <c r="C160" s="18" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="161" ht="15" customHeight="1">
-      <c r="B161" s="3" t="n">
-        <v>41935.0</v>
-      </c>
-      <c r="C161" s="4"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="B162" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C162" s="15" t="s">
-        <v>76</v>
+        <v>44</v>
+      </c>
+      <c r="C162" s="19" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="B163" s="5"/>
-      <c r="C163" s="15" t="s">
+      <c r="C163" s="19"/>
+    </row>
+    <row r="164" ht="15" customHeight="1">
+      <c r="B164" s="3" t="n">
+        <v>41935.0</v>
+      </c>
+      <c r="C164" s="4"/>
+    </row>
+    <row r="165" ht="15" customHeight="1">
+      <c r="B165" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C165" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="166" ht="15" customHeight="1">
+      <c r="B166" s="5"/>
+      <c r="C166" s="15" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="164" ht="15" customHeight="1">
-      <c r="B164" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="165" ht="15" customHeight="1">
-      <c r="B165" s="5"/>
-      <c r="C165" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" ht="15" customHeight="1">
-      <c r="B166" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C166" s="16" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="B167" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
+      <c r="C168" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="169" ht="15" customHeight="1">
-      <c r="B169" s="5"/>
-      <c r="C169" s="7" t="s">
-        <v>41</v>
+      <c r="B169" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="B170" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C170" s="17" t="s">
-        <v>24</v>
+        <v>89</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="B171" s="5"/>
-      <c r="C171" s="18" t="s">
-        <v>57</v>
-      </c>
+      <c r="C171" s="5"/>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
+      <c r="C172" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="B173" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>64</v>
+        <v>86</v>
+      </c>
+      <c r="C173" s="17" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
+      <c r="C174" s="18" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="175" ht="15" customHeight="1">
-      <c r="B175" s="3" t="n">
-        <v>41936.0</v>
-      </c>
-      <c r="C175" s="4"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="B176" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C176" s="15" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="B177" s="5"/>
-      <c r="C177" s="15" t="s">
-        <v>55</v>
-      </c>
+      <c r="C177" s="5"/>
     </row>
     <row r="178" ht="15" customHeight="1">
-      <c r="B178" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B178" s="3" t="n">
+        <v>41936.0</v>
+      </c>
+      <c r="C178" s="4"/>
     </row>
     <row r="179" ht="15" customHeight="1">
-      <c r="B179" s="5"/>
-      <c r="C179" s="6" t="s">
+      <c r="B179" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C179" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
-      <c r="B180" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C180" s="16" t="s">
-        <v>30</v>
+      <c r="B180" s="5"/>
+      <c r="C180" s="15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="B181" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="B182" s="5"/>
-      <c r="C182" s="5"/>
+      <c r="C182" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="183" ht="15" customHeight="1">
-      <c r="B183" s="5"/>
-      <c r="C183" s="7" t="s">
-        <v>80</v>
+      <c r="B183" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C183" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="B184" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C184" s="17" t="s">
-        <v>13</v>
+        <v>89</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="B185" s="5"/>
-      <c r="C185" s="18" t="s">
-        <v>71</v>
-      </c>
+      <c r="C185" s="5"/>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="B186" s="5"/>
-      <c r="C186" s="5"/>
+      <c r="C186" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="B187" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>11</v>
+        <v>86</v>
+      </c>
+      <c r="C187" s="17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="B188" s="5"/>
-      <c r="C188" s="5"/>
+      <c r="C188" s="18" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="189" ht="15" customHeight="1">
-      <c r="B189" s="20" t="n">
-        <v>41937.0</v>
-      </c>
-      <c r="C189" s="4"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="B190" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C190" s="15" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="B191" s="5"/>
-      <c r="C191" s="15" t="s">
-        <v>55</v>
-      </c>
+      <c r="C191" s="5"/>
     </row>
     <row r="192" ht="15" customHeight="1">
-      <c r="B192" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B192" s="3" t="n">
+        <v>41937.0</v>
+      </c>
+      <c r="C192" s="4"/>
     </row>
     <row r="193" ht="15" customHeight="1">
-      <c r="B193" s="5"/>
-      <c r="C193" s="6" t="s">
+      <c r="B193" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C193" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
-      <c r="B194" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C194" s="16" t="s">
-        <v>30</v>
+      <c r="B194" s="5"/>
+      <c r="C194" s="15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="B195" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="B196" s="5"/>
-      <c r="C196" s="5"/>
+      <c r="C196" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="197" ht="15" customHeight="1">
-      <c r="B197" s="5"/>
-      <c r="C197" s="7" t="s">
-        <v>16</v>
+      <c r="B197" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C197" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="B198" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C198" s="17" t="s">
-        <v>73</v>
+        <v>89</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="B199" s="5"/>
-      <c r="C199" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="C199" s="5"/>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="B200" s="5"/>
-      <c r="C200" s="5"/>
+      <c r="C200" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="B201" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C201" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="C201" s="17" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="B202" s="5"/>
-      <c r="C202" s="5"/>
+      <c r="C202" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" ht="15" customHeight="1">
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+    </row>
+    <row r="204" ht="15" customHeight="1">
+      <c r="B204" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C204" s="6"/>
+    </row>
+    <row r="205" ht="15" customHeight="1">
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+    </row>
+    <row r="206" ht="15" customHeight="1">
+      <c r="B206" s="20" t="n">
+        <v>41938.0</v>
+      </c>
+      <c r="C206" s="21"/>
+    </row>
+    <row r="207" ht="15" customHeight="1">
+      <c r="B207" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C207" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="208" ht="15" customHeight="1">
+      <c r="B208" s="5"/>
+      <c r="C208" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="209" ht="15" customHeight="1">
+      <c r="B209" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C209" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="210" ht="15" customHeight="1">
+      <c r="B210" s="5"/>
+      <c r="C210" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="211" ht="15" customHeight="1">
+      <c r="B211" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C211" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="212" ht="15" customHeight="1">
+      <c r="B212" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C212" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="213" ht="15" customHeight="1">
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+    </row>
+    <row r="214" ht="15" customHeight="1">
+      <c r="B214" s="5"/>
+      <c r="C214" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="215" ht="15" customHeight="1">
+      <c r="B215" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C215" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="216" ht="15" customHeight="1">
+      <c r="B216" s="5"/>
+      <c r="C216" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217" ht="15" customHeight="1">
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+    </row>
+    <row r="218" ht="15" customHeight="1">
+      <c r="B218" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C218" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="219" ht="15" customHeight="1">
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+    </row>
+    <row r="220" ht="15" customHeight="1">
+      <c r="B220" s="20" t="n">
+        <v>41939.0</v>
+      </c>
+      <c r="C220" s="21"/>
+    </row>
+    <row r="221" ht="15" customHeight="1">
+      <c r="B221" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C221" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="222" ht="15" customHeight="1">
+      <c r="B222" s="5"/>
+      <c r="C222" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="223" ht="15" customHeight="1">
+      <c r="B223" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C223" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="224" ht="15" customHeight="1">
+      <c r="B224" s="5"/>
+      <c r="C224" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="225" ht="15" customHeight="1">
+      <c r="B225" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C225" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="226" ht="15" customHeight="1">
+      <c r="B226" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C226" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="227" ht="15" customHeight="1">
+      <c r="B227" s="5"/>
+      <c r="C227" s="5"/>
+    </row>
+    <row r="228" ht="15" customHeight="1">
+      <c r="B228" s="5"/>
+      <c r="C228" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" ht="15" customHeight="1">
+      <c r="B229" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C229" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="230" ht="15" customHeight="1">
+      <c r="B230" s="5"/>
+      <c r="C230" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" ht="15" customHeight="1">
+      <c r="B231" s="5"/>
+      <c r="C231" s="5"/>
+    </row>
+    <row r="232" ht="15" customHeight="1">
+      <c r="B232" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C232" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="233" ht="15" customHeight="1">
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+    </row>
+    <row r="234" ht="15" customHeight="1">
+      <c r="B234" s="20" t="n">
+        <v>41940.0</v>
+      </c>
+      <c r="C234" s="21"/>
+    </row>
+    <row r="235" ht="15" customHeight="1">
+      <c r="B235" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C235" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="236" ht="15" customHeight="1">
+      <c r="B236" s="5"/>
+      <c r="C236" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="237" ht="15" customHeight="1">
+      <c r="B237" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C237" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="238" ht="15" customHeight="1">
+      <c r="B238" s="5"/>
+      <c r="C238" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="239" ht="15" customHeight="1">
+      <c r="B239" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C239" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="240" ht="15" customHeight="1">
+      <c r="B240" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C240" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="241" ht="15" customHeight="1">
+      <c r="B241" s="5"/>
+      <c r="C241" s="5"/>
+    </row>
+    <row r="242" ht="15" customHeight="1">
+      <c r="B242" s="5"/>
+      <c r="C242" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="243" ht="15" customHeight="1">
+      <c r="B243" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C243" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="244" ht="15" customHeight="1">
+      <c r="B244" s="5"/>
+      <c r="C244" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="245" ht="15" customHeight="1">
+      <c r="B245" s="5"/>
+      <c r="C245" s="5"/>
+    </row>
+    <row r="246" ht="15" customHeight="1">
+      <c r="B246" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C246" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="247" ht="15" customHeight="1">
+      <c r="B247" s="5"/>
+      <c r="C247" s="5"/>
+    </row>
+    <row r="248" ht="15" customHeight="1">
+      <c r="B248" s="20" t="n">
+        <v>41941.0</v>
+      </c>
+      <c r="C248" s="21"/>
+    </row>
+    <row r="249" ht="15" customHeight="1">
+      <c r="B249" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C249" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="250" ht="15" customHeight="1">
+      <c r="B250" s="5"/>
+      <c r="C250" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="251" ht="15" customHeight="1">
+      <c r="B251" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C251" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="252" ht="15" customHeight="1">
+      <c r="B252" s="5"/>
+      <c r="C252" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="253" ht="15" customHeight="1">
+      <c r="B253" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C253" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="254" ht="15" customHeight="1">
+      <c r="B254" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C254" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="255" ht="15" customHeight="1">
+      <c r="B255" s="5"/>
+      <c r="C255" s="5"/>
+    </row>
+    <row r="256" ht="15" customHeight="1">
+      <c r="B256" s="5"/>
+      <c r="C256" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="257" ht="15" customHeight="1">
+      <c r="B257" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C257" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="258" ht="15" customHeight="1">
+      <c r="B258" s="5"/>
+      <c r="C258" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="259" ht="15" customHeight="1">
+      <c r="B259" s="5"/>
+      <c r="C259" s="5"/>
+    </row>
+    <row r="260" ht="15" customHeight="1">
+      <c r="B260" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C260" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="261" ht="15" customHeight="1">
+      <c r="B261" s="5"/>
+      <c r="C261" s="5"/>
+    </row>
+    <row r="262" ht="15" customHeight="1">
+      <c r="B262" s="28" t="n">
+        <v>41942.0</v>
+      </c>
+      <c r="C262" s="21"/>
+    </row>
+    <row r="263" ht="15" customHeight="1">
+      <c r="B263" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C263" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="264" ht="15" customHeight="1">
+      <c r="B264" s="5"/>
+      <c r="C264" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="B265" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C265" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="B266" s="5"/>
+      <c r="C266" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="B267" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C267" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="B268" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C268" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="B269" s="5"/>
+      <c r="C269" s="5"/>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="B270" s="5"/>
+      <c r="C270" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="B271" s="5"/>
+      <c r="C271" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="B272" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C272" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="B273" s="5"/>
+      <c r="C273" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="B274" s="5"/>
+      <c r="C274" s="5"/>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="B275" s="5"/>
+      <c r="C275" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="B276" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C276" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="B277" s="5"/>
+      <c r="C277" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
+  <mergeCells count="143">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
@@ -2164,92 +2696,140 @@
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
     <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B100"/>
     <mergeCell ref="B102:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B112:B113"/>
     <mergeCell ref="B115:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B125:B126"/>
     <mergeCell ref="B128:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="C132:C133"/>
     <mergeCell ref="B134:B135"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="B139:B141"/>
-    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="B139:B140"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="C146:C147"/>
     <mergeCell ref="B148:B149"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B153:B154"/>
     <mergeCell ref="B156:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="C160:C161"/>
     <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="B167:B168"/>
     <mergeCell ref="B170:B172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="C174:C175"/>
     <mergeCell ref="B176:B177"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="B181:B183"/>
-    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="B181:B182"/>
     <mergeCell ref="B184:B186"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="C188:C189"/>
     <mergeCell ref="B190:B191"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="B195:B197"/>
-    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="B195:B196"/>
     <mergeCell ref="B198:B200"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="B212:B214"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="B226:B228"/>
+    <mergeCell ref="C226:C227"/>
+    <mergeCell ref="B229:B231"/>
+    <mergeCell ref="C230:C231"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="B240:B242"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="B243:B245"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="B249:B250"/>
+    <mergeCell ref="B251:B252"/>
+    <mergeCell ref="B254:B256"/>
+    <mergeCell ref="C254:C255"/>
+    <mergeCell ref="B257:B259"/>
+    <mergeCell ref="C258:C259"/>
+    <mergeCell ref="B260:B261"/>
+    <mergeCell ref="C260:C261"/>
+    <mergeCell ref="B263:B264"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="B268:B271"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="B272:B275"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="B276:B277"/>
+    <mergeCell ref="C276:C277"/>
   </mergeCells>
   <printOptions/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
